--- a/data/trans_orig/P24D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB9BCDE1-A850-405C-A96E-0A9ACE45B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBEB5F22-21C5-4E92-ADF7-46731773BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4970F2C9-3C6A-4802-8578-B1D1C3A03560}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3874EC2-3941-4D5A-898F-D5ECD2B4A443}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="503">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>25,73%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
   </si>
   <si>
     <t>74,27%</t>
   </si>
   <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>31,36%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>36,9%</t>
   </si>
   <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
   </si>
   <si>
     <t>68,64%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
   <si>
     <t>63,1%</t>
   </si>
   <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,1267 +254,1291 @@
     <t>37,47%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
-    <t>28,73%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>45,09%</t>
   </si>
   <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>54,91%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>46,49%</t>
   </si>
   <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>53,51%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
   </si>
   <si>
     <t>61,48%</t>
@@ -1935,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80913D7E-BE38-45CB-88A2-0AA8F4670A08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC15C3AE-9BE6-4A5B-BD1B-C68621003E97}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3154,7 +3178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20AF15C-7C16-41EF-8262-F8DA4C0A311A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045150A1-7803-461B-BA83-FB1DFFD8F3B7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4208,13 +4232,13 @@
         <v>626595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>455</v>
@@ -4223,10 +4247,10 @@
         <v>496158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>255</v>
@@ -4259,13 +4283,13 @@
         <v>725297</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>438</v>
@@ -4274,13 +4298,13 @@
         <v>473036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="M23" s="7">
         <v>1130</v>
@@ -4373,7 +4397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340FA033-9F5E-47C1-822F-35150820156D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E0AC3-942C-475B-A7D8-4D07E7828787}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4810,7 +4834,7 @@
         <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>301</v>
@@ -4864,7 +4888,7 @@
         <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -4968,7 +4992,7 @@
         <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -4977,13 +5001,13 @@
         <v>118006</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M13" s="7">
         <v>216</v>
@@ -4992,13 +5016,13 @@
         <v>237016</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5037,13 @@
         <v>158788</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -5028,13 +5052,13 @@
         <v>112823</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -5043,13 +5067,13 @@
         <v>271611</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5141,13 @@
         <v>81475</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5132,13 +5156,13 @@
         <v>56202</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -5147,13 +5171,13 @@
         <v>137678</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5192,13 @@
         <v>65361</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -5183,13 +5207,13 @@
         <v>57885</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -5198,13 +5222,13 @@
         <v>123246</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5296,13 @@
         <v>41238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5287,13 +5311,13 @@
         <v>19573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -5302,13 +5326,13 @@
         <v>60812</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,10 +5347,10 @@
         <v>40857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>239</v>
@@ -5338,10 +5362,10 @@
         <v>18468</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>312</v>
@@ -5353,13 +5377,13 @@
         <v>59325</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,10 +5451,10 @@
         <v>505119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>309</v>
@@ -5442,13 +5466,13 @@
         <v>409409</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>865</v>
@@ -5457,13 +5481,13 @@
         <v>914528</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5502,13 @@
         <v>671018</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>301</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
         <v>498</v>
@@ -5493,13 +5517,13 @@
         <v>512570</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>1122</v>
@@ -5508,13 +5532,13 @@
         <v>1183588</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DCE02A-6964-40B3-A010-6EE2022DCC62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAD70C7-940C-4647-9003-E86FC88C2BF9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5609,7 +5633,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5716,13 +5740,13 @@
         <v>14111</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5731,13 +5755,13 @@
         <v>16973</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -5746,13 +5770,13 @@
         <v>31085</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5791,13 @@
         <v>68464</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -5782,10 +5806,10 @@
         <v>52708</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>395</v>
@@ -6062,7 +6086,7 @@
         <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6101,13 @@
         <v>100654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -6092,13 +6116,13 @@
         <v>78712</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -6107,13 +6131,13 @@
         <v>179366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>83</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6205,13 @@
         <v>75572</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -6196,13 +6220,13 @@
         <v>83511</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
@@ -6211,13 +6235,13 @@
         <v>159083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6256,13 @@
         <v>115658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -6247,13 +6271,13 @@
         <v>90187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -6262,13 +6286,13 @@
         <v>205844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6360,13 @@
         <v>75867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -6351,13 +6375,13 @@
         <v>65960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -6366,13 +6390,13 @@
         <v>141827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6411,13 @@
         <v>107042</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -6402,13 +6426,13 @@
         <v>63650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>227</v>
@@ -6417,13 +6441,13 @@
         <v>170691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6515,13 @@
         <v>40996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -6506,13 +6530,13 @@
         <v>26229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -6521,13 +6545,13 @@
         <v>67225</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6566,13 @@
         <v>51332</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -6557,13 +6581,13 @@
         <v>33959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -6572,13 +6596,13 @@
         <v>85291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,13 +6670,13 @@
         <v>293753</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H22" s="7">
         <v>419</v>
@@ -6661,13 +6685,13 @@
         <v>303240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>714</v>
@@ -6676,13 +6700,13 @@
         <v>596994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6721,13 @@
         <v>555173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="H23" s="7">
         <v>525</v>
@@ -6712,10 +6736,10 @@
         <v>397632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>499</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>229</v>
@@ -6727,13 +6751,13 @@
         <v>952805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBEB5F22-21C5-4E92-ADF7-46731773BB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{735024C9-E07A-49DB-9F2A-A3AF0ADFE8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C3874EC2-3941-4D5A-898F-D5ECD2B4A443}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7041BBAE-AE59-45AA-BF84-9DFFC8DF188E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="507">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>25,73%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>74,27%</t>
   </si>
   <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>31,36%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
   </si>
   <si>
     <t>36,9%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
   </si>
   <si>
     <t>68,64%</t>
   </si>
   <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>63,1%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>37,47%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>36,97%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>63,84%</t>
   </si>
   <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>63,03%</t>
   </si>
   <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,847 +311,865 @@
     <t>49,46%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>15,17%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>41,06%</t>
   </si>
   <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
   </si>
   <si>
     <t>58,94%</t>
   </si>
   <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
     <t>58,23%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>55,16%</t>
   </si>
   <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
   </si>
   <si>
     <t>42,84%</t>
   </si>
   <si>
-    <t>36,75%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
   </si>
   <si>
     <t>46,6%</t>
   </si>
   <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>63,25%</t>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>53,4%</t>
   </si>
   <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>52,77%</t>
   </si>
   <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
   </si>
   <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>61,0%</t>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>51,45%</t>
   </si>
   <si>
-    <t>68,95%</t>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
   </si>
   <si>
     <t>50,62%</t>
   </si>
   <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>41,79%</t>
   </si>
   <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>39,0%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
   </si>
   <si>
     <t>48,55%</t>
   </si>
   <si>
-    <t>31,05%</t>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
   </si>
   <si>
     <t>49,38%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>58,21%</t>
   </si>
   <si>
     <t>42,95%</t>
   </si>
   <si>
-    <t>40,02%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>47,63%</t>
   </si>
   <si>
     <t>43,59%</t>
   </si>
   <si>
-    <t>41,47%</t>
+    <t>41,44%</t>
   </si>
   <si>
     <t>45,84%</t>
@@ -1160,16 +1178,16 @@
     <t>57,05%</t>
   </si>
   <si>
-    <t>59,98%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
+    <t>52,37%</t>
   </si>
   <si>
     <t>56,41%</t>
@@ -1178,7 +1196,7 @@
     <t>54,16%</t>
   </si>
   <si>
-    <t>58,53%</t>
+    <t>58,56%</t>
   </si>
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
@@ -1460,9 +1478,6 @@
     <t>43,58%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
     <t>52,67%</t>
   </si>
   <si>
@@ -1488,9 +1503,6 @@
   </si>
   <si>
     <t>47,33%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
   </si>
   <si>
     <t>55,92%</t>
@@ -1959,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC15C3AE-9BE6-4A5B-BD1B-C68621003E97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1A691-0B94-452D-BECB-3F6263187052}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3178,7 +3190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{045150A1-7803-461B-BA83-FB1DFFD8F3B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF940647-E701-4FD6-9DD1-1306337770F2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4235,10 +4247,10 @@
         <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>455</v>
@@ -4247,10 +4259,10 @@
         <v>496158</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>255</v>
@@ -4268,7 +4280,7 @@
         <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4295,13 @@
         <v>725297</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>438</v>
@@ -4298,13 +4310,13 @@
         <v>473036</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M23" s="7">
         <v>1130</v>
@@ -4313,13 +4325,13 @@
         <v>1198334</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,7 +4409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05E0AC3-942C-475B-A7D8-4D07E7828787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D945B7-45D6-46A7-8DFA-B85332651D0D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4414,7 +4426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4521,13 +4533,13 @@
         <v>39062</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -4536,13 +4548,13 @@
         <v>35181</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -4551,13 +4563,13 @@
         <v>74242</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4584,13 @@
         <v>103240</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -4587,13 +4599,13 @@
         <v>70266</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -4602,13 +4614,13 @@
         <v>173506</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4688,13 @@
         <v>98275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -4691,13 +4703,13 @@
         <v>88323</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>186</v>
@@ -4706,13 +4718,13 @@
         <v>186598</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4739,13 @@
         <v>162807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -4742,13 +4754,13 @@
         <v>124708</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>282</v>
@@ -4757,10 +4769,10 @@
         <v>287515</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>299</v>
@@ -4834,10 +4846,10 @@
         <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -4846,13 +4858,13 @@
         <v>92123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>213</v>
@@ -4861,13 +4873,13 @@
         <v>218181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4894,13 @@
         <v>139965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -4897,13 +4909,13 @@
         <v>128421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4912,13 +4924,13 @@
         <v>268386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4998,13 @@
         <v>119010</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -5001,13 +5013,13 @@
         <v>118006</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>216</v>
@@ -5016,13 +5028,13 @@
         <v>237016</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5049,13 @@
         <v>158788</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -5052,13 +5064,13 @@
         <v>112823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -5067,13 +5079,13 @@
         <v>271611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5153,13 @@
         <v>81475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5156,13 +5168,13 @@
         <v>56202</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -5171,13 +5183,13 @@
         <v>137678</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5204,13 @@
         <v>65361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -5207,13 +5219,13 @@
         <v>57885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -5222,13 +5234,13 @@
         <v>123246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5308,13 @@
         <v>41238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5311,13 +5323,13 @@
         <v>19573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -5326,13 +5338,13 @@
         <v>60812</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5359,13 @@
         <v>40857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -5362,13 +5374,13 @@
         <v>18468</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -5377,13 +5389,13 @@
         <v>59325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5463,13 @@
         <v>505119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="H22" s="7">
         <v>395</v>
@@ -5466,13 +5478,13 @@
         <v>409409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>865</v>
@@ -5481,13 +5493,13 @@
         <v>914528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5514,13 @@
         <v>671018</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>498</v>
@@ -5517,13 +5529,13 @@
         <v>512570</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>125</v>
       </c>
       <c r="M23" s="7">
         <v>1122</v>
@@ -5532,13 +5544,13 @@
         <v>1183588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,7 +5628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAD70C7-940C-4647-9003-E86FC88C2BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5EA46-FC3C-4106-B9FA-F1178272FBFF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5633,7 +5645,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5740,13 +5752,13 @@
         <v>14111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5755,13 +5767,13 @@
         <v>16973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -5770,13 +5782,13 @@
         <v>31085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5803,13 @@
         <v>68464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -5806,13 +5818,13 @@
         <v>52708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -5821,13 +5833,13 @@
         <v>121171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5907,13 @@
         <v>32939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -5910,13 +5922,13 @@
         <v>44847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5925,13 +5937,13 @@
         <v>77786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5958,13 @@
         <v>112024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -5961,13 +5973,13 @@
         <v>78417</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -5976,13 +5988,13 @@
         <v>190441</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6062,13 @@
         <v>54268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -6065,13 +6077,13 @@
         <v>65721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -6080,13 +6092,13 @@
         <v>119988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6113,13 @@
         <v>100654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -6116,13 +6128,13 @@
         <v>78712</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -6131,13 +6143,13 @@
         <v>179366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6217,13 @@
         <v>75572</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -6220,13 +6232,13 @@
         <v>83511</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
@@ -6235,13 +6247,13 @@
         <v>159083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6268,13 @@
         <v>115658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -6271,13 +6283,13 @@
         <v>90187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -6286,13 +6298,13 @@
         <v>205844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6372,13 @@
         <v>75867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -6375,13 +6387,13 @@
         <v>65960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -6390,13 +6402,13 @@
         <v>141827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6423,13 @@
         <v>107042</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -6426,13 +6438,13 @@
         <v>63650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M17" s="7">
         <v>227</v>
@@ -6441,13 +6453,13 @@
         <v>170691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,13 +6527,13 @@
         <v>40996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -6530,13 +6542,13 @@
         <v>26229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -6545,13 +6557,13 @@
         <v>67225</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6578,13 @@
         <v>51332</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -6581,13 +6593,13 @@
         <v>33959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>483</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>137</v>
@@ -6596,13 +6608,13 @@
         <v>85291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6670,13 +6682,13 @@
         <v>293753</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H22" s="7">
         <v>419</v>
@@ -6685,13 +6697,13 @@
         <v>303240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>714</v>
@@ -6700,13 +6712,13 @@
         <v>596994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6733,13 @@
         <v>555173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>525</v>
@@ -6736,10 +6748,10 @@
         <v>397632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>229</v>
@@ -6751,13 +6763,13 @@
         <v>952805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735024C9-E07A-49DB-9F2A-A3AF0ADFE8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB8E7CA-A28E-4162-A9D6-F57F3DC03878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7041BBAE-AE59-45AA-BF84-9DFFC8DF188E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{540EB12A-F8B4-4305-AF43-940CF1D7EA24}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="495">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>10,74%</t>
@@ -80,25 +80,25 @@
     <t>7,3%</t>
   </si>
   <si>
-    <t>15,26%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>20,4%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>15,09%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>84,74%</t>
+    <t>84,55%</t>
   </si>
   <si>
     <t>92,7%</t>
@@ -116,19 +116,19 @@
     <t>79,6%</t>
   </si>
   <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>25,73%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>74,27%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>70,74%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>31,36%</t>
   </si>
   <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>36,9%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>68,64%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
   </si>
   <si>
     <t>63,1%</t>
   </si>
   <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,55 @@
     <t>37,47%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>36,16%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>36,97%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>63,84%</t>
   </si>
   <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
   </si>
   <si>
     <t>63,03%</t>
   </si>
   <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,865 +311,853 @@
     <t>49,46%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
   </si>
   <si>
     <t>43,08%</t>
   </si>
   <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>63,86%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
     <t>55,16%</t>
   </si>
   <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>42,84%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
   </si>
   <si>
     <t>46,6%</t>
   </si>
   <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
   </si>
   <si>
     <t>57,16%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
   </si>
   <si>
     <t>48,88%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
   </si>
   <si>
     <t>53,4%</t>
   </si>
   <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
   </si>
   <si>
     <t>55,49%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>49,26%</t>
   </si>
   <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
   </si>
   <si>
     <t>52,77%</t>
   </si>
   <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
   </si>
   <si>
     <t>44,51%</t>
   </si>
   <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
   <si>
     <t>50,74%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
   </si>
   <si>
     <t>47,23%</t>
   </si>
   <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
   </si>
   <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>61,0%</t>
   </si>
   <si>
     <t>51,45%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
+    <t>68,95%</t>
   </si>
   <si>
     <t>50,62%</t>
   </si>
   <si>
-    <t>41,79%</t>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
   </si>
   <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>39,0%</t>
   </si>
   <si>
     <t>48,55%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>31,05%</t>
   </si>
   <si>
     <t>49,38%</t>
   </si>
   <si>
-    <t>58,21%</t>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
   </si>
   <si>
     <t>42,95%</t>
   </si>
   <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
+    <t>40,02%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>47,63%</t>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>43,59%</t>
   </si>
   <si>
-    <t>41,44%</t>
+    <t>41,47%</t>
   </si>
   <si>
     <t>45,84%</t>
@@ -1178,16 +1166,16 @@
     <t>57,05%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
+    <t>59,98%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>52,37%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
   </si>
   <si>
     <t>56,41%</t>
@@ -1196,7 +1184,7 @@
     <t>54,16%</t>
   </si>
   <si>
-    <t>58,56%</t>
+    <t>58,53%</t>
   </si>
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
@@ -1217,9 +1205,6 @@
     <t>9,88%</t>
   </si>
   <si>
-    <t>41,42%</t>
-  </si>
-  <si>
     <t>20,42%</t>
   </si>
   <si>
@@ -1241,9 +1226,6 @@
     <t>75,64%</t>
   </si>
   <si>
-    <t>58,58%</t>
-  </si>
-  <si>
     <t>90,12%</t>
   </si>
   <si>
@@ -1334,9 +1316,6 @@
     <t>34,59%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
     <t>64,97%</t>
   </si>
   <si>
@@ -1358,9 +1337,6 @@
     <t>59,92%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
     <t>65,41%</t>
   </si>
   <si>
@@ -1475,9 +1451,6 @@
     <t>53,18%</t>
   </si>
   <si>
-    <t>43,58%</t>
-  </si>
-  <si>
     <t>52,67%</t>
   </si>
   <si>
@@ -1499,9 +1472,6 @@
     <t>63,31%</t>
   </si>
   <si>
-    <t>56,42%</t>
-  </si>
-  <si>
     <t>47,33%</t>
   </si>
   <si>
@@ -1526,9 +1496,6 @@
     <t>43,27%</t>
   </si>
   <si>
-    <t>46,49%</t>
-  </si>
-  <si>
     <t>38,52%</t>
   </si>
   <si>
@@ -1548,9 +1515,6 @@
   </si>
   <si>
     <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
   </si>
   <si>
     <t>61,48%</t>
@@ -1971,7 +1935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1A691-0B94-452D-BECB-3F6263187052}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89B7DDB-9D95-455F-B1AC-51FB0F104457}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3190,7 +3154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF940647-E701-4FD6-9DD1-1306337770F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ED041F-43B9-4851-AFBF-DDB242B0DAA8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4244,10 +4208,10 @@
         <v>626595</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>252</v>
@@ -4280,7 +4244,7 @@
         <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4259,13 @@
         <v>725297</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>438</v>
@@ -4310,13 +4274,13 @@
         <v>473036</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>1130</v>
@@ -4325,13 +4289,13 @@
         <v>1198334</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D945B7-45D6-46A7-8DFA-B85332651D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6E5B7B-EF36-4A32-8A4A-838A4094DE0A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4426,7 +4390,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4533,13 +4497,13 @@
         <v>39062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -4548,13 +4512,13 @@
         <v>35181</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -4563,13 +4527,13 @@
         <v>74242</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4548,13 @@
         <v>103240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -4599,13 +4563,13 @@
         <v>70266</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -4614,13 +4578,13 @@
         <v>173506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4652,13 @@
         <v>98275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -4703,13 +4667,13 @@
         <v>88323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>186</v>
@@ -4718,13 +4682,13 @@
         <v>186598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,13 +4703,13 @@
         <v>162807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -4754,13 +4718,13 @@
         <v>124708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>282</v>
@@ -4769,10 +4733,10 @@
         <v>287515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>299</v>
@@ -4846,10 +4810,10 @@
         <v>300</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -4858,13 +4822,13 @@
         <v>92123</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>213</v>
@@ -4873,13 +4837,13 @@
         <v>218181</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4858,13 @@
         <v>139965</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>91</v>
       </c>
       <c r="H11" s="7">
         <v>129</v>
@@ -4909,13 +4873,13 @@
         <v>128421</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4924,13 +4888,13 @@
         <v>268386</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4962,13 @@
         <v>119010</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -5013,13 +4977,13 @@
         <v>118006</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>216</v>
@@ -5028,13 +4992,13 @@
         <v>237016</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5013,13 @@
         <v>158788</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -5064,13 +5028,13 @@
         <v>112823</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -5079,13 +5043,13 @@
         <v>271611</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5117,13 @@
         <v>81475</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5168,13 +5132,13 @@
         <v>56202</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -5183,13 +5147,13 @@
         <v>137678</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,13 +5168,13 @@
         <v>65361</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -5219,13 +5183,13 @@
         <v>57885</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -5234,13 +5198,13 @@
         <v>123246</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5272,13 @@
         <v>41238</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5323,13 +5287,13 @@
         <v>19573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -5338,13 +5302,13 @@
         <v>60812</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5323,13 @@
         <v>40857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>16</v>
@@ -5374,13 +5338,13 @@
         <v>18468</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -5389,13 +5353,13 @@
         <v>59325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5427,13 @@
         <v>505119</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>395</v>
@@ -5478,13 +5442,13 @@
         <v>409409</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>865</v>
@@ -5493,13 +5457,13 @@
         <v>914528</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5478,13 @@
         <v>671018</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H23" s="7">
         <v>498</v>
@@ -5529,13 +5493,13 @@
         <v>512570</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>1122</v>
@@ -5544,13 +5508,13 @@
         <v>1183588</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,7 +5592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5EA46-FC3C-4106-B9FA-F1178272FBFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DA230-D286-49AF-BF95-E4FFCEC985C8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5645,7 +5609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5752,13 +5716,13 @@
         <v>14111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5767,13 +5731,13 @@
         <v>16973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -5782,13 +5746,13 @@
         <v>31085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5767,13 @@
         <v>68464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -5818,13 +5782,13 @@
         <v>52708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>400</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
@@ -5833,13 +5797,13 @@
         <v>121171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5871,13 @@
         <v>32939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -5922,13 +5886,13 @@
         <v>44847</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -5937,13 +5901,13 @@
         <v>77786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5922,13 @@
         <v>112024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
@@ -5973,13 +5937,13 @@
         <v>78417</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
@@ -5988,13 +5952,13 @@
         <v>190441</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6026,13 @@
         <v>54268</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
@@ -6077,13 +6041,13 @@
         <v>65721</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -6092,13 +6056,13 @@
         <v>119988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>431</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6077,13 @@
         <v>100654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
@@ -6128,13 +6092,13 @@
         <v>78712</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -6143,13 +6107,13 @@
         <v>179366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6181,13 @@
         <v>75572</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -6232,13 +6196,13 @@
         <v>83511</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
@@ -6247,13 +6211,13 @@
         <v>159083</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6232,13 @@
         <v>115658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -6283,13 +6247,13 @@
         <v>90187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -6298,13 +6262,13 @@
         <v>205844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6336,13 @@
         <v>75867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -6387,13 +6351,13 @@
         <v>65960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -6402,13 +6366,13 @@
         <v>141827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6387,13 @@
         <v>107042</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -6438,13 +6402,13 @@
         <v>63650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>227</v>
@@ -6453,13 +6417,13 @@
         <v>170691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6491,13 @@
         <v>40996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -6542,13 +6506,13 @@
         <v>26229</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>154</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>104</v>
@@ -6557,13 +6521,13 @@
         <v>67225</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6542,13 @@
         <v>51332</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -6593,10 +6557,10 @@
         <v>33959</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>142</v>
@@ -6608,13 +6572,13 @@
         <v>85291</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6646,13 @@
         <v>293753</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>419</v>
@@ -6697,13 +6661,13 @@
         <v>303240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>714</v>
@@ -6712,13 +6676,13 @@
         <v>596994</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6697,13 @@
         <v>555173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="H23" s="7">
         <v>525</v>
@@ -6748,10 +6712,10 @@
         <v>397632</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>174</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>229</v>
@@ -6763,13 +6727,13 @@
         <v>952805</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDB8E7CA-A28E-4162-A9D6-F57F3DC03878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DBF6E8-8CB5-440B-935A-3C5392DA3133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{540EB12A-F8B4-4305-AF43-940CF1D7EA24}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B5889B1-3355-4AFA-9E91-8A43099D8DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="554">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>25,73%</t>
@@ -191,7 +191,7 @@
     <t>74,38%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>31,36%</t>
@@ -248,7 +248,7 @@
     <t>66,98%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>37,47%</t>
@@ -305,7 +305,7 @@
     <t>68,16%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>49,46%</t>
@@ -362,61 +362,100 @@
     <t>64,12%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>30,46%</t>
@@ -548,9 +587,6 @@
     <t>49,94%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
     <t>47,34%</t>
   </si>
   <si>
@@ -572,9 +608,6 @@
     <t>43,7%</t>
   </si>
   <si>
-    <t>36,87%</t>
-  </si>
-  <si>
     <t>50,06%</t>
   </si>
   <si>
@@ -746,52 +779,100 @@
     <t>56,55%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
   </si>
   <si>
     <t>43,47%</t>
@@ -905,9 +986,6 @@
     <t>43,67%</t>
   </si>
   <si>
-    <t>41,46%</t>
-  </si>
-  <si>
     <t>35,14%</t>
   </si>
   <si>
@@ -926,9 +1004,6 @@
     <t>68,13%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
     <t>51,79%</t>
   </si>
   <si>
@@ -1097,46 +1172,106 @@
     <t>53,36%</t>
   </si>
   <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>42,95%</t>
@@ -1190,340 +1325,382 @@
     <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
   </si>
   <si>
     <t>40,41%</t>
   </si>
   <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
   <si>
     <t>59,59%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
   </si>
   <si>
     <t>53,18%</t>
   </si>
   <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +2112,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89B7DDB-9D95-455F-B1AC-51FB0F104457}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD63364-CEFE-4849-8BD8-7F6928C21D15}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2828,10 +3005,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>38364</v>
+        <v>26152</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2843,34 +3020,34 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>5732</v>
+        <v>4658</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>34</v>
+      </c>
+      <c r="N19" s="7">
+        <v>30811</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>47</v>
-      </c>
-      <c r="N19" s="7">
-        <v>44097</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,49 +3056,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7">
+        <v>27021</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1927</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="7">
-        <v>36008</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5488</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>30</v>
+      </c>
+      <c r="N20" s="7">
+        <v>28947</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>43</v>
-      </c>
-      <c r="N20" s="7">
-        <v>41495</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,10 +3107,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7">
-        <v>74372</v>
+        <v>53173</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2945,10 +3122,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>11220</v>
+        <v>6585</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2960,10 +3137,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="N21" s="7">
-        <v>85592</v>
+        <v>59758</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2977,55 +3154,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>407</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>420548</v>
+        <v>12213</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1074</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>289</v>
-      </c>
-      <c r="I22" s="7">
-        <v>298010</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="7">
+        <v>13</v>
+      </c>
+      <c r="N22" s="7">
+        <v>13286</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M22" s="7">
-        <v>696</v>
-      </c>
-      <c r="N22" s="7">
-        <v>718558</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,49 +3211,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>938</v>
+        <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>960280</v>
+        <v>8987</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3561</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="7">
+        <v>13</v>
+      </c>
+      <c r="N23" s="7">
+        <v>12548</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>548</v>
-      </c>
-      <c r="I23" s="7">
-        <v>556464</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1486</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1516744</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,63 +3262,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7">
+        <v>21200</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4635</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>26</v>
+      </c>
+      <c r="N24" s="7">
+        <v>25834</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>407</v>
+      </c>
+      <c r="D25" s="7">
+        <v>420548</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>289</v>
+      </c>
+      <c r="I25" s="7">
+        <v>298010</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>696</v>
+      </c>
+      <c r="N25" s="7">
+        <v>718558</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>938</v>
+      </c>
+      <c r="D26" s="7">
+        <v>960280</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>548</v>
+      </c>
+      <c r="I26" s="7">
+        <v>556464</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1486</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1516744</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1345</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1380828</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>837</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>854474</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2182</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2235302</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3154,8 +3487,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ED041F-43B9-4851-AFBF-DDB242B0DAA8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E779DA6C-F80D-412F-A1DB-4C0652D2E578}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3171,7 +3504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3278,13 +3611,13 @@
         <v>56276</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -3293,13 +3626,13 @@
         <v>61601</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>116</v>
@@ -3308,13 +3641,13 @@
         <v>117877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3662,13 @@
         <v>108869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -3344,13 +3677,13 @@
         <v>84776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>191</v>
@@ -3359,13 +3692,13 @@
         <v>193645</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3766,13 @@
         <v>142427</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>130</v>
@@ -3448,13 +3781,13 @@
         <v>139936</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="M7" s="7">
         <v>263</v>
@@ -3463,13 +3796,13 @@
         <v>282362</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3817,13 @@
         <v>205486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>104</v>
@@ -3499,13 +3832,13 @@
         <v>108598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>307</v>
@@ -3514,13 +3847,13 @@
         <v>314085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3921,13 @@
         <v>158026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -3603,13 +3936,13 @@
         <v>128287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>268</v>
@@ -3618,13 +3951,13 @@
         <v>286313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3972,13 @@
         <v>166351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -3654,13 +3987,13 @@
         <v>119952</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>275</v>
@@ -3669,13 +4002,13 @@
         <v>286303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +4076,13 @@
         <v>145894</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3758,13 +4091,13 @@
         <v>131616</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>238</v>
@@ -3773,13 +4106,13 @@
         <v>277511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +4127,13 @@
         <v>133888</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>92</v>
@@ -3809,13 +4142,13 @@
         <v>105477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>213</v>
@@ -3824,13 +4157,13 @@
         <v>239364</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +4231,13 @@
         <v>86007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -3913,13 +4246,13 @@
         <v>26206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -3928,13 +4261,13 @@
         <v>112213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +4282,13 @@
         <v>70362</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -3964,13 +4297,13 @@
         <v>39714</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>96</v>
@@ -3979,13 +4312,13 @@
         <v>110076</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,49 +4380,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>37965</v>
+        <v>24773</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>8512</v>
+        <v>7507</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N19" s="7">
-        <v>46477</v>
+        <v>32280</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,49 +4431,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D20" s="7">
-        <v>40341</v>
+        <v>26481</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>14519</v>
+        <v>11496</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N20" s="7">
-        <v>54860</v>
+        <v>37977</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,10 +4482,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D21" s="7">
-        <v>78306</v>
+        <v>51254</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4164,10 +4497,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>23031</v>
+        <v>19003</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4512,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="N21" s="7">
-        <v>101337</v>
+        <v>70257</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4196,55 +4529,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>575</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>626595</v>
+        <v>13192</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H22" s="7">
-        <v>455</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>496158</v>
+        <v>1005</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
-        <v>1030</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>1122752</v>
+        <v>14197</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,49 +4586,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>692</v>
+        <v>13</v>
       </c>
       <c r="D23" s="7">
-        <v>725297</v>
+        <v>13860</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
-        <v>438</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>473036</v>
+        <v>3024</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
-        <v>1130</v>
+        <v>15</v>
       </c>
       <c r="N23" s="7">
-        <v>1198334</v>
+        <v>16883</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,63 +4637,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>27052</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>4029</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>27</v>
+      </c>
+      <c r="N24" s="7">
+        <v>31080</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>575</v>
+      </c>
+      <c r="D25" s="7">
+        <v>626595</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>455</v>
+      </c>
+      <c r="I25" s="7">
+        <v>496158</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1030</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1122752</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>692</v>
+      </c>
+      <c r="D26" s="7">
+        <v>725297</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H26" s="7">
+        <v>438</v>
+      </c>
+      <c r="I26" s="7">
+        <v>473036</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1130</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1198334</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1267</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1351892</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>893</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>969194</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2160</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2321086</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4373,8 +4862,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6E5B7B-EF36-4A32-8A4A-838A4094DE0A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C06EE83-7EE6-4414-AEED-D558442A0783}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4390,7 +4879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4497,13 +4986,13 @@
         <v>39062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -4512,13 +5001,13 @@
         <v>35181</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -4527,13 +5016,13 @@
         <v>74242</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +5037,13 @@
         <v>103240</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="H5" s="7">
         <v>72</v>
@@ -4563,13 +5052,13 @@
         <v>70266</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>168</v>
@@ -4578,13 +5067,13 @@
         <v>173506</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +5141,13 @@
         <v>98275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -4667,13 +5156,13 @@
         <v>88323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>186</v>
@@ -4682,13 +5171,13 @@
         <v>186598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +5192,13 @@
         <v>162807</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -4718,13 +5207,13 @@
         <v>124708</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>282</v>
@@ -4733,13 +5222,13 @@
         <v>287515</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +5296,13 @@
         <v>126058</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -4822,13 +5311,13 @@
         <v>92123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>213</v>
@@ -4837,13 +5326,13 @@
         <v>218181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,10 +5347,10 @@
         <v>139965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>91</v>
@@ -4873,13 +5362,13 @@
         <v>128421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4888,13 +5377,13 @@
         <v>268386</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,13 +5451,13 @@
         <v>119010</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>109</v>
@@ -4977,13 +5466,13 @@
         <v>118006</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>216</v>
@@ -4992,13 +5481,13 @@
         <v>237016</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5502,13 @@
         <v>158788</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>102</v>
@@ -5028,13 +5517,13 @@
         <v>112823</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>241</v>
@@ -5043,13 +5532,13 @@
         <v>271611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5606,13 @@
         <v>81475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5132,13 +5621,13 @@
         <v>56202</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -5147,13 +5636,13 @@
         <v>137678</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,13 +5657,13 @@
         <v>65361</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -5183,13 +5672,13 @@
         <v>57885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -5198,13 +5687,13 @@
         <v>123246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,49 +5755,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>41238</v>
+        <v>28817</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>19573</v>
+        <v>14060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="M19" s="7">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="N19" s="7">
-        <v>60812</v>
+        <v>42877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,49 +5806,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7">
+        <v>29415</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H20" s="7">
+        <v>14</v>
+      </c>
+      <c r="I20" s="7">
+        <v>15967</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M20" s="7">
         <v>42</v>
       </c>
-      <c r="D20" s="7">
-        <v>40857</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H20" s="7">
-        <v>16</v>
-      </c>
-      <c r="I20" s="7">
-        <v>18468</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M20" s="7">
-        <v>58</v>
-      </c>
       <c r="N20" s="7">
-        <v>59325</v>
+        <v>45382</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,10 +5857,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D21" s="7">
-        <v>82095</v>
+        <v>58232</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5383,10 +5872,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I21" s="7">
-        <v>38041</v>
+        <v>30027</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5398,10 +5887,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="N21" s="7">
-        <v>120137</v>
+        <v>88259</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5415,55 +5904,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>470</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>505119</v>
+        <v>12421</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
-        <v>395</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>409409</v>
+        <v>5513</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>112</v>
       </c>
       <c r="M22" s="7">
-        <v>865</v>
+        <v>19</v>
       </c>
       <c r="N22" s="7">
-        <v>914528</v>
+        <v>17934</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,49 +5961,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>624</v>
+        <v>14</v>
       </c>
       <c r="D23" s="7">
-        <v>671018</v>
+        <v>11442</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>404</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
-        <v>498</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>512570</v>
+        <v>2501</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="M23" s="7">
-        <v>1122</v>
+        <v>16</v>
       </c>
       <c r="N23" s="7">
-        <v>1183588</v>
+        <v>13943</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,63 +6012,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23863</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>8014</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>35</v>
+      </c>
+      <c r="N24" s="7">
+        <v>31877</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>470</v>
+      </c>
+      <c r="D25" s="7">
+        <v>505119</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="7">
+        <v>395</v>
+      </c>
+      <c r="I25" s="7">
+        <v>409409</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M25" s="7">
+        <v>865</v>
+      </c>
+      <c r="N25" s="7">
+        <v>914528</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>624</v>
+      </c>
+      <c r="D26" s="7">
+        <v>671018</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H26" s="7">
+        <v>498</v>
+      </c>
+      <c r="I26" s="7">
+        <v>512570</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1122</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1183588</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1094</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1176137</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>893</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>921979</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>1987</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2098116</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5592,8 +6237,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398DA230-D286-49AF-BF95-E4FFCEC985C8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB6EEBC-CDA6-422E-B5C1-266C07E577D0}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5609,7 +6254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5713,46 +6358,46 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>14111</v>
+        <v>14393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>16973</v>
+        <v>15464</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>31085</v>
+        <v>29857</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,46 +6409,46 @@
         <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>68464</v>
+        <v>73116</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>52708</v>
+        <v>46210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="M5" s="7">
         <v>57</v>
       </c>
       <c r="N5" s="7">
-        <v>121171</v>
+        <v>119326</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,7 +6460,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="7">
-        <v>82575</v>
+        <v>87509</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5830,7 +6475,7 @@
         <v>38</v>
       </c>
       <c r="I6" s="7">
-        <v>69681</v>
+        <v>61674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5845,7 +6490,7 @@
         <v>74</v>
       </c>
       <c r="N6" s="7">
-        <v>152256</v>
+        <v>149183</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5868,46 +6513,46 @@
         <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>32939</v>
+        <v>35282</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>44847</v>
+        <v>42339</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>77786</v>
+        <v>77621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>407</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,46 +6564,46 @@
         <v>81</v>
       </c>
       <c r="D8" s="7">
-        <v>112024</v>
+        <v>111747</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="H8" s="7">
         <v>72</v>
       </c>
       <c r="I8" s="7">
-        <v>78417</v>
+        <v>71410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>153</v>
       </c>
       <c r="N8" s="7">
-        <v>190441</v>
+        <v>183156</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>415</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,7 +6615,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="7">
-        <v>144963</v>
+        <v>147029</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5985,7 +6630,7 @@
         <v>112</v>
       </c>
       <c r="I9" s="7">
-        <v>123264</v>
+        <v>113749</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6000,7 +6645,7 @@
         <v>217</v>
       </c>
       <c r="N9" s="7">
-        <v>268227</v>
+        <v>260777</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6023,46 +6668,46 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>54268</v>
+        <v>53292</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="H10" s="7">
         <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>65721</v>
+        <v>61700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
       </c>
       <c r="N10" s="7">
-        <v>119988</v>
+        <v>114993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>75</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,46 +6719,46 @@
         <v>97</v>
       </c>
       <c r="D11" s="7">
-        <v>100654</v>
+        <v>96355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>106</v>
       </c>
       <c r="I11" s="7">
-        <v>78712</v>
+        <v>73222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
       </c>
       <c r="N11" s="7">
-        <v>179366</v>
+        <v>169576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>83</v>
+        <v>474</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,7 +6770,7 @@
         <v>150</v>
       </c>
       <c r="D12" s="7">
-        <v>154922</v>
+        <v>149647</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6140,7 +6785,7 @@
         <v>197</v>
       </c>
       <c r="I12" s="7">
-        <v>144433</v>
+        <v>134922</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6155,7 +6800,7 @@
         <v>347</v>
       </c>
       <c r="N12" s="7">
-        <v>299354</v>
+        <v>284569</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6178,46 +6823,46 @@
         <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>75572</v>
+        <v>77668</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
       </c>
       <c r="I13" s="7">
-        <v>83511</v>
+        <v>77849</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
       </c>
       <c r="N13" s="7">
-        <v>159083</v>
+        <v>155517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>482</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,46 +6874,46 @@
         <v>115</v>
       </c>
       <c r="D14" s="7">
-        <v>115658</v>
+        <v>107090</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
       </c>
       <c r="I14" s="7">
-        <v>90187</v>
+        <v>83385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
       </c>
       <c r="N14" s="7">
-        <v>205844</v>
+        <v>190475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>490</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>447</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,7 +6925,7 @@
         <v>184</v>
       </c>
       <c r="D15" s="7">
-        <v>191230</v>
+        <v>184758</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6295,7 +6940,7 @@
         <v>272</v>
       </c>
       <c r="I15" s="7">
-        <v>173698</v>
+        <v>161234</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6310,7 +6955,7 @@
         <v>456</v>
       </c>
       <c r="N15" s="7">
-        <v>364927</v>
+        <v>345992</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6333,46 +6978,46 @@
         <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>75867</v>
+        <v>71863</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
       </c>
       <c r="I16" s="7">
-        <v>65960</v>
+        <v>60517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>452</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
       </c>
       <c r="N16" s="7">
-        <v>141827</v>
+        <v>132381</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,46 +7029,46 @@
         <v>118</v>
       </c>
       <c r="D17" s="7">
-        <v>107042</v>
+        <v>99376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
       </c>
       <c r="I17" s="7">
-        <v>63650</v>
+        <v>59236</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>502</v>
       </c>
       <c r="M17" s="7">
         <v>227</v>
       </c>
       <c r="N17" s="7">
-        <v>170691</v>
+        <v>158611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>503</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>504</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +7080,7 @@
         <v>200</v>
       </c>
       <c r="D18" s="7">
-        <v>182909</v>
+        <v>171239</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6450,7 +7095,7 @@
         <v>216</v>
       </c>
       <c r="I18" s="7">
-        <v>129610</v>
+        <v>119753</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6465,7 +7110,7 @@
         <v>416</v>
       </c>
       <c r="N18" s="7">
-        <v>312518</v>
+        <v>290992</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6485,49 +7130,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>40996</v>
+        <v>32925</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I19" s="7">
-        <v>26229</v>
+        <v>21627</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>509</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>510</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="M19" s="7">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="N19" s="7">
-        <v>67225</v>
+        <v>54552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,49 +7181,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7">
-        <v>51332</v>
+        <v>34670</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I20" s="7">
-        <v>33959</v>
+        <v>27153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>517</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>519</v>
       </c>
       <c r="M20" s="7">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="N20" s="7">
-        <v>85291</v>
+        <v>61822</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>478</v>
+        <v>520</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>479</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,10 +7232,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D21" s="7">
-        <v>92328</v>
+        <v>67595</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6602,10 +7247,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I21" s="7">
-        <v>60188</v>
+        <v>48780</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6617,10 +7262,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="N21" s="7">
-        <v>152516</v>
+        <v>116374</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6634,55 +7279,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>295</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>293753</v>
+        <v>5870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="H22" s="7">
-        <v>419</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>303240</v>
+        <v>2213</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>526</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
-        <v>714</v>
+        <v>14</v>
       </c>
       <c r="N22" s="7">
-        <v>596994</v>
+        <v>8083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>527</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>528</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,49 +7336,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>512</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7">
-        <v>555173</v>
+        <v>13161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>530</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>531</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>490</v>
+        <v>532</v>
       </c>
       <c r="H23" s="7">
-        <v>525</v>
+        <v>8</v>
       </c>
       <c r="I23" s="7">
-        <v>397632</v>
+        <v>4081</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>229</v>
+        <v>534</v>
       </c>
       <c r="M23" s="7">
-        <v>1037</v>
+        <v>28</v>
       </c>
       <c r="N23" s="7">
-        <v>952805</v>
+        <v>17242</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,63 +7387,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19031</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>6294</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>25325</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>295</v>
+      </c>
+      <c r="D25" s="7">
+        <v>291294</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="H25" s="7">
+        <v>419</v>
+      </c>
+      <c r="I25" s="7">
+        <v>281709</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M25" s="7">
+        <v>714</v>
+      </c>
+      <c r="N25" s="7">
+        <v>573003</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>512</v>
+      </c>
+      <c r="D26" s="7">
+        <v>535514</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="H26" s="7">
+        <v>525</v>
+      </c>
+      <c r="I26" s="7">
+        <v>364696</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1037</v>
+      </c>
+      <c r="N26" s="7">
+        <v>900209</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>807</v>
       </c>
-      <c r="D24" s="7">
-        <v>848926</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>826808</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>944</v>
       </c>
-      <c r="I24" s="7">
-        <v>700872</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>646405</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>1751</v>
       </c>
-      <c r="N24" s="7">
-        <v>1549799</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>1473212</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
